--- a/Figures/Table1.xlsx
+++ b/Figures/Table1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="5420" yWindow="0" windowWidth="20120" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -983,8 +983,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1067,15 +1071,19 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1408,7 +1416,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
